--- a/Semester 5/DAN/Experiments/EXP3/EXP3.xlsx
+++ b/Semester 5/DAN/Experiments/EXP3/EXP3.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaan\Semester 5\DAN\Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MSBTE-CO-K\Semester 5\DAN\Experiments\EXP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6755E833-25DA-4F69-AFB0-EEC8195A50CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1922B3B2-B1B7-4BFA-94BE-912ACCEB6E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practical 3.2" sheetId="1" r:id="rId1"/>
     <sheet name="Practical 3.3" sheetId="2" r:id="rId2"/>
+    <sheet name="Practical 3.4" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Customer Name</t>
   </si>
@@ -101,13 +113,76 @@
   </si>
   <si>
     <t>Upper</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Student 1</t>
+  </si>
+  <si>
+    <t>Student 2</t>
+  </si>
+  <si>
+    <t>Student 3</t>
+  </si>
+  <si>
+    <t>Student 4</t>
+  </si>
+  <si>
+    <t>Student 5</t>
+  </si>
+  <si>
+    <t>Student 6</t>
+  </si>
+  <si>
+    <t>Student 7</t>
+  </si>
+  <si>
+    <t>Student 8</t>
+  </si>
+  <si>
+    <t>Student 9</t>
+  </si>
+  <si>
+    <t>Student 10</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +194,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,16 +242,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -187,6 +296,1375 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Student 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practical 3.4'!$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E2A-49D7-86FF-793CF38200E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Student 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practical 3.4'!$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E2A-49D7-86FF-793CF38200E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Student 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practical 3.4'!$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E2A-49D7-86FF-793CF38200E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Student 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practical 3.4'!$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1E2A-49D7-86FF-793CF38200E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Student 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practical 3.4'!$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1E2A-49D7-86FF-793CF38200E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Student 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practical 3.4'!$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1E2A-49D7-86FF-793CF38200E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Student 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practical 3.4'!$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1E2A-49D7-86FF-793CF38200E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Student 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practical 3.4'!$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1E2A-49D7-86FF-793CF38200E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Student 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practical 3.4'!$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1E2A-49D7-86FF-793CF38200E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Student 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Practical 3.4'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Practical 3.4'!$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1E2A-49D7-86FF-793CF38200E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="111340320"/>
+        <c:axId val="111337920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="111340320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111337920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="111337920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111340320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603A8848-01E5-5623-DAAC-1CA4934AD2C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,11 +1930,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -483,314 +1959,155 @@
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>TRIM(B3)</f>
+        <v>amAan Kazi</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>PROPER(E3)</f>
+        <v>Amaan Kazi</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G8" si="0">LOWER(F3)</f>
+        <v>amaan kazi</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>G3</f>
+        <v>amaan kazi</v>
+      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>TRIM(B4)</f>
-        <v>amAan Kazi</v>
+        <f t="shared" ref="E4:E8" si="1">TRIM(B4)</f>
+        <v>yAsh Khanvilkar</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>PROPER(E4)</f>
-        <v>Amaan Kazi</v>
+        <f t="shared" ref="F4:F8" si="2">PROPER(E4)</f>
+        <v>Yash Khanvilkar</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>LOWER(F4)</f>
-        <v>amaan kazi</v>
+        <f t="shared" si="0"/>
+        <v>yash khanvilkar</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f>G4</f>
+        <v>yash khanvilkar</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" ref="E5:E9" si="0">TRIM(B5)</f>
-        <v>yAsh Khanvilkar</v>
+        <f t="shared" si="1"/>
+        <v>Shirish S Shinde</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" ref="F5:F9" si="1">PROPER(E5)</f>
-        <v>Yash Khanvilkar</v>
+        <f t="shared" si="2"/>
+        <v>Shirish S Shinde</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" ref="G5:G9" si="2">LOWER(F5)</f>
-        <v>yash khanvilkar</v>
+        <f t="shared" si="0"/>
+        <v>shirish s shinde</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>G5</f>
+        <v>shirish s shinde</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>vedAnt Jadhav</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Vedant Jadhav</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>vedant jadhav</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>G6</f>
+        <v>vedant jadhav</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Yash KhAnvilkar</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Yash Khanvilkar</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yash khanvilkar</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Shirish S Shinde</v>
-      </c>
-      <c r="F6" s="1" t="str">
+      <c r="E8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Shirish S Shinde</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="F8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>shirish s shinde</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="str">
+        <v>Shirish S Shinde</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>vedAnt Jadhav</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Vedant Jadhav</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>vedant jadhav</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Yash KhAnvilkar</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Yash Khanvilkar</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>yash khanvilkar</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Shirish S Shinde</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Shirish S Shinde</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>shirish s shinde</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f>TRIM(B18)</f>
-        <v>amAan Kazi</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f>PROPER(E18)</f>
-        <v>Amaan Kazi</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f>LOWER(F18)</f>
-        <v>amaan kazi</v>
-      </c>
-      <c r="I18" s="1" t="str">
-        <f>G18</f>
-        <v>amaan kazi</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <f t="shared" ref="E19:E23" si="3">TRIM(B19)</f>
-        <v>yAsh Khanvilkar</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <f t="shared" ref="F19:F23" si="4">PROPER(E19)</f>
-        <v>Yash Khanvilkar</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f>LOWER(F19)</f>
-        <v>yash khanvilkar</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f>G19</f>
-        <v>yash khanvilkar</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Shirish S Shinde</v>
-      </c>
-      <c r="F20" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Shirish S Shinde</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f>LOWER(F20)</f>
-        <v>shirish s shinde</v>
-      </c>
-      <c r="I20" s="1" t="str">
-        <f>G20</f>
-        <v>shirish s shinde</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>vedAnt Jadhav</v>
-      </c>
-      <c r="F21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Vedant Jadhav</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f>LOWER(F21)</f>
-        <v>vedant jadhav</v>
-      </c>
-      <c r="I21" s="1" t="str">
-        <f>G21</f>
-        <v>vedant jadhav</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Yash KhAnvilkar</v>
-      </c>
-      <c r="F22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Yash Khanvilkar</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f>LOWER(F22)</f>
-        <v>yash khanvilkar</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Shirish S Shinde</v>
-      </c>
-      <c r="F23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Shirish S Shinde</v>
-      </c>
-      <c r="G23" s="1" t="str">
-        <f>LOWER(F23)</f>
         <v>shirish s shinde</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{5494A788-7699-4505-81B8-CF79DA10F796}"/>
-    <hyperlink ref="C5:C7" r:id="rId2" display="amaan@gmail.com" xr:uid="{71B03CE8-1ACA-4426-A5C8-D84CB5649B00}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{AD76FA20-0D30-4D83-8ED2-901578252E86}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{8C4C2226-C2DA-4122-BB8F-7590CD5506EA}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{498D0B4D-3A9E-4EFC-9A23-AD0A967CA582}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{67F8CE86-33D8-48D5-B60F-4A01F7B72269}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{D2B37BA1-1A34-43B4-A357-3EAA2EA51D98}"/>
-    <hyperlink ref="C18" r:id="rId8" xr:uid="{067A5248-EE3E-4410-BE57-0E57D40C393F}"/>
-    <hyperlink ref="C19:C21" r:id="rId9" display="amaan@gmail.com" xr:uid="{75650026-3907-46A7-A640-BAA93F9F95B0}"/>
-    <hyperlink ref="C19" r:id="rId10" xr:uid="{BEBE5F56-20F5-4783-BCEA-2769BC832937}"/>
-    <hyperlink ref="C20" r:id="rId11" xr:uid="{61C36D2D-996E-4F1C-A29C-B3B249019CC4}"/>
-    <hyperlink ref="C21" r:id="rId12" xr:uid="{DDE006AD-BB54-4FB5-B621-5DF4A268C904}"/>
-    <hyperlink ref="C22" r:id="rId13" xr:uid="{278BF385-27C7-430F-9F25-1A35B78C6182}"/>
-    <hyperlink ref="C23" r:id="rId14" xr:uid="{0D165AA3-8E92-4353-B379-AF2D83BB1BF9}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{067A5248-EE3E-4410-BE57-0E57D40C393F}"/>
+    <hyperlink ref="C4:C6" r:id="rId2" display="amaan@gmail.com" xr:uid="{75650026-3907-46A7-A640-BAA93F9F95B0}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{BEBE5F56-20F5-4783-BCEA-2769BC832937}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{61C36D2D-996E-4F1C-A29C-B3B249019CC4}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{DDE006AD-BB54-4FB5-B621-5DF4A268C904}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{278BF385-27C7-430F-9F25-1A35B78C6182}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{0D165AA3-8E92-4353-B379-AF2D83BB1BF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -800,7 +2117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F14F7B8-ADA6-4C7E-B580-7B8B746EEBCE}">
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -922,4 +2239,364 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172ED2CA-4821-4321-8D5B-A6A4BA3C346B}">
+  <dimension ref="B2:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1">
+        <v>85</v>
+      </c>
+      <c r="E3" s="1">
+        <v>92</v>
+      </c>
+      <c r="F3" s="1">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1">
+        <v>88</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SUM(C3:G3)</f>
+        <v>417</v>
+      </c>
+      <c r="I3" s="1">
+        <f>H3/500*100</f>
+        <v>83.399999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <v>75</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H12" si="0">SUM(C4:G4)</f>
+        <v>352</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I12" si="1">H4/500*100</f>
+        <v>70.399999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1">
+        <v>88</v>
+      </c>
+      <c r="E5" s="1">
+        <v>95</v>
+      </c>
+      <c r="F5" s="1">
+        <v>85</v>
+      </c>
+      <c r="G5" s="1">
+        <v>92</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1">
+        <v>65</v>
+      </c>
+      <c r="F6" s="1">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1">
+        <v>68</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>318</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>82</v>
+      </c>
+      <c r="D7" s="1">
+        <v>79</v>
+      </c>
+      <c r="E7" s="1">
+        <v>88</v>
+      </c>
+      <c r="F7" s="1">
+        <v>84</v>
+      </c>
+      <c r="G7" s="1">
+        <v>80</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>413</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1">
+        <v>78</v>
+      </c>
+      <c r="F8" s="1">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1">
+        <v>77</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>95</v>
+      </c>
+      <c r="D9" s="1">
+        <v>92</v>
+      </c>
+      <c r="E9" s="1">
+        <v>90</v>
+      </c>
+      <c r="F9" s="1">
+        <v>88</v>
+      </c>
+      <c r="G9" s="1">
+        <v>94</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>459</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1">
+        <v>70</v>
+      </c>
+      <c r="F10" s="1">
+        <v>68</v>
+      </c>
+      <c r="G10" s="1">
+        <v>72</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1">
+        <v>85</v>
+      </c>
+      <c r="E11" s="1">
+        <v>90</v>
+      </c>
+      <c r="F11" s="1">
+        <v>86</v>
+      </c>
+      <c r="G11" s="1">
+        <v>89</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1">
+        <v>82</v>
+      </c>
+      <c r="F12" s="1">
+        <v>78</v>
+      </c>
+      <c r="G12" s="1">
+        <v>85</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="5">
+        <f>MAX(I3:I12)</f>
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="5">
+        <f>MIN(I3:I12)</f>
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="5">
+        <f>AVERAGE(I3:I12)</f>
+        <v>79.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>